--- a/aCCTg. pROGRAm/fs 2015.xlsx
+++ b/aCCTg. pROGRAm/fs 2015.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cRb" sheetId="1" r:id="rId1"/>
     <sheet name="cDb" sheetId="3" r:id="rId2"/>
     <sheet name="tRIALBAl." sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -785,7 +784,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,7 +819,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1031,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,11 +2971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5262,17 +5261,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/aCCTg. pROGRAm/fs 2015.xlsx
+++ b/aCCTg. pROGRAm/fs 2015.xlsx
@@ -11,12 +11,12 @@
     <sheet name="cDb" sheetId="3" r:id="rId2"/>
     <sheet name="tRIALBAl." sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
   <si>
     <t>cASh rECEIPt bOOk</t>
   </si>
@@ -496,6 +496,15 @@
   </si>
   <si>
     <t>CLOSE TO BUILDING ACCOUNT</t>
+  </si>
+  <si>
+    <t>Q: bakit nasa iisang row lang ang mga transaction sa April 14? Ibig bang sabihin iisang Cash Voucher lang ang ni-release? Sabay-sabay ba ang mga transaction sa date na yan?</t>
+  </si>
+  <si>
+    <t>Q: bakit nasa iisang row lang ang mga transaction sa April 14? Ibig bang sabihin iisang Sales Invoice or OR lang ang ni-release? Sabay-sabay ba ang mga transaction sa date na yan?</t>
+  </si>
+  <si>
+    <t>Q: ano ang ibig sabihin ng mga red font color amounts?</t>
   </si>
 </sst>
 </file>
@@ -573,12 +582,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -671,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -723,6 +738,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1030,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1685,7 @@
         <v>12381.75</v>
       </c>
     </row>
-    <row r="17" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="D17" s="10">
         <f t="shared" ref="D17:V17" si="2">SUM(D5:D16)</f>
@@ -1751,34 +1768,56 @@
         <v>1806724.5900000003</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
     </row>
   </sheetData>
@@ -1791,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,7 +2929,24 @@
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
+      <c r="B21" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>

--- a/aCCTg. pROGRAm/fs 2015.xlsx
+++ b/aCCTg. pROGRAm/fs 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cRb" sheetId="1" r:id="rId1"/>
@@ -483,9 +483,6 @@
     <t xml:space="preserve">TAKE UP DEPRECIATION FOR THE YEAR </t>
   </si>
   <si>
-    <t>ACCUMULATEDEPECIATION</t>
-  </si>
-  <si>
     <t>UNIFORM - STAFF</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t>Q: ano ang ibig sabihin ng mga red font color amounts?</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECIATION</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,11 +734,12 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1047,27 +1047,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1775,35 +1763,35 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="B20" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
@@ -1830,15 +1818,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2752,175 +2755,175 @@
       </c>
     </row>
     <row r="19" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <f t="shared" ref="C19:AR19" si="1">SUM(C7:C18)</f>
         <v>1736465.7799999998</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="42">
         <f t="shared" si="1"/>
         <v>97738.5</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="42">
         <f t="shared" si="1"/>
         <v>14950</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="42">
         <f t="shared" si="1"/>
         <v>1915</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="42">
         <f t="shared" si="1"/>
         <v>46566.13</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="42">
         <f t="shared" si="1"/>
         <v>346977.55</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="42">
         <f t="shared" si="1"/>
         <v>2960</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="42">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="42">
         <f t="shared" si="1"/>
         <v>2550</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="42">
         <f t="shared" si="1"/>
         <v>1299</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="42">
         <f t="shared" si="1"/>
         <v>4004</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="42">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="42">
         <f t="shared" si="1"/>
         <v>867337.36999999988</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="42">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="42">
         <f t="shared" si="1"/>
         <v>554</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="42">
         <f t="shared" si="1"/>
         <v>32342.6</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="42">
         <f t="shared" si="1"/>
         <v>64960</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="42">
         <f t="shared" si="1"/>
         <v>39036</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19" s="42">
         <f t="shared" si="1"/>
         <v>16333</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="42">
         <f t="shared" si="1"/>
         <v>-36814.99</v>
       </c>
-      <c r="W19" s="12">
+      <c r="W19" s="42">
         <f t="shared" si="1"/>
         <v>-12832</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19" s="42">
         <f t="shared" si="1"/>
         <v>2831.83</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Y19" s="42">
         <f t="shared" si="1"/>
         <v>39096.5</v>
       </c>
-      <c r="Z19" s="12">
+      <c r="Z19" s="42">
         <f t="shared" si="1"/>
         <v>7256</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA19" s="42">
         <f t="shared" si="1"/>
         <v>1918</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AB19" s="42">
         <f t="shared" si="1"/>
         <v>9188.8799999999992</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AC19" s="42">
         <f t="shared" si="1"/>
         <v>2356</v>
       </c>
-      <c r="AD19" s="12">
+      <c r="AD19" s="42">
         <f t="shared" si="1"/>
         <v>1980</v>
       </c>
-      <c r="AE19" s="12">
+      <c r="AE19" s="42">
         <f t="shared" si="1"/>
         <v>54394</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AF19" s="42">
         <f t="shared" si="1"/>
         <v>3713</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AG19" s="42">
         <f t="shared" si="1"/>
         <v>5533</v>
       </c>
-      <c r="AH19" s="12">
+      <c r="AH19" s="42">
         <f t="shared" si="1"/>
         <v>37665</v>
       </c>
-      <c r="AI19" s="12">
+      <c r="AI19" s="42">
         <f t="shared" si="1"/>
         <v>322.7</v>
       </c>
-      <c r="AJ19" s="12">
+      <c r="AJ19" s="42">
         <f t="shared" si="1"/>
         <v>-57444.290000000023</v>
       </c>
-      <c r="AK19" s="12">
+      <c r="AK19" s="42">
         <f t="shared" si="1"/>
         <v>47340</v>
       </c>
-      <c r="AL19" s="12">
+      <c r="AL19" s="42">
         <f t="shared" si="1"/>
         <v>26755</v>
       </c>
-      <c r="AM19" s="12">
+      <c r="AM19" s="42">
         <f t="shared" si="1"/>
         <v>2231</v>
       </c>
-      <c r="AN19" s="12">
+      <c r="AN19" s="42">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="AO19" s="12">
+      <c r="AO19" s="42">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="AP19" s="12">
+      <c r="AP19" s="42">
         <f t="shared" si="1"/>
         <v>24840</v>
       </c>
-      <c r="AQ19" s="12">
+      <c r="AQ19" s="42">
         <f t="shared" si="1"/>
         <v>4600</v>
       </c>
-      <c r="AR19" s="12">
+      <c r="AR19" s="42">
         <f t="shared" si="1"/>
         <v>2713</v>
       </c>
-      <c r="AS19" s="13">
+      <c r="AS19" s="12">
         <f>SUM(D19:AR19)</f>
         <v>1736465.7799999998</v>
       </c>
@@ -2929,24 +2932,24 @@
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
+      <c r="B21" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
@@ -3027,11 +3030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,1997 +3053,1997 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>2015</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="40" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>1806724.5900000003</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>1736465.7799999998</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f>+B6-C6</f>
         <v>70258.810000000522</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="30">
+      <c r="E6" s="19"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="29">
         <f>+E86</f>
         <v>159873.14343915344</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <f>+D6+F6-G6</f>
         <v>-89614.333439152921</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="27">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="26">
         <f>+H6</f>
         <v>-89614.333439152921</v>
       </c>
-      <c r="M6" s="27"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19">
+      <c r="B7" s="19"/>
+      <c r="C7" s="18">
         <v>1070023.02</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18">
         <f>+C7-B7</f>
         <v>1070023.02</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="27">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="26">
         <f>+E7-F7+G7</f>
         <v>1070023.02</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="27">
+      <c r="J7" s="14"/>
+      <c r="K7" s="26">
         <f>+I7</f>
         <v>1070023.02</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>26755</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>73772.12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18">
         <f t="shared" ref="E8:E24" si="0">+C8-B8</f>
         <v>47017.119999999995</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="27">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="26">
         <f t="shared" ref="I8:I24" si="1">+E8-F8+G8</f>
         <v>47017.119999999995</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="27">
+      <c r="J8" s="14"/>
+      <c r="K8" s="26">
         <f t="shared" ref="K8:K24" si="2">+I8</f>
         <v>47017.119999999995</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>346977.55</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>317920.45</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>-29057.099999999977</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="31">
+      <c r="F9" s="20"/>
+      <c r="G9" s="30">
         <f>+E100</f>
         <v>29057.099999999977</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="30">
         <f>-E9</f>
         <v>29057.099999999977</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18">
         <v>41209.08</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
         <v>41209.08</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="27">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="26">
         <f t="shared" si="1"/>
         <v>41209.08</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="37">
+      <c r="J10" s="14"/>
+      <c r="K10" s="36">
         <f t="shared" si="2"/>
         <v>41209.08</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>1915</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>9600</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
         <v>7685</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="27">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="26">
         <f t="shared" si="1"/>
         <v>7685</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="37">
+      <c r="J11" s="14"/>
+      <c r="K11" s="36">
         <f t="shared" si="2"/>
         <v>7685</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <f>97738.5+64960+39036</f>
         <v>201734.5</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>79118.570000000007</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>-122615.93</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="27">
+      <c r="F12" s="20"/>
+      <c r="G12" s="26">
         <f>+E102</f>
         <v>122615.93</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <f>-E12</f>
         <v>122615.93</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="19">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18">
         <v>35186.800000000003</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
         <v>35186.800000000003</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="27">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="26">
         <f t="shared" si="1"/>
         <v>35186.800000000003</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="37">
+      <c r="J13" s="14"/>
+      <c r="K13" s="36">
         <f t="shared" si="2"/>
         <v>35186.800000000003</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18">
         <v>7710</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
         <f t="shared" si="0"/>
         <v>7710</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="27">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="26">
         <f t="shared" si="1"/>
         <v>7710</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="27">
+      <c r="J14" s="14"/>
+      <c r="K14" s="26">
         <f t="shared" si="2"/>
         <v>7710</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18">
         <v>7781.3</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>7781.3</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="27">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="26">
         <f t="shared" si="1"/>
         <v>7781.3</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="27">
+      <c r="J15" s="14"/>
+      <c r="K15" s="26">
         <f t="shared" si="2"/>
         <v>7781.3</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>3300</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>3525</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="27">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="26">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="27">
+      <c r="J16" s="14"/>
+      <c r="K16" s="26">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>2550</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>23550</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
         <v>21000</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="27">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="26">
         <f t="shared" si="1"/>
         <v>21000</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="27">
+      <c r="J17" s="14"/>
+      <c r="K17" s="26">
         <f t="shared" si="2"/>
         <v>21000</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>5533</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>64868</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>59335</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="27">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="26">
         <f t="shared" si="1"/>
         <v>59335</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="27">
+      <c r="J18" s="14"/>
+      <c r="K18" s="26">
         <f t="shared" si="2"/>
         <v>59335</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18">
         <v>13880</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>13880</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="27">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="26">
         <f t="shared" si="1"/>
         <v>13880</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="27">
+      <c r="J19" s="14"/>
+      <c r="K19" s="26">
         <f t="shared" si="2"/>
         <v>13880</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>47340</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>28618.5</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>-18721.5</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="27">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="26">
         <f>+E20</f>
         <v>-18721.5</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19">
+      <c r="B21" s="19"/>
+      <c r="C21" s="18">
         <v>19511.75</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>19511.75</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="27">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="26">
         <f t="shared" si="1"/>
         <v>19511.75</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="27">
+      <c r="J21" s="14"/>
+      <c r="K21" s="26">
         <f t="shared" si="2"/>
         <v>19511.75</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>1300</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>1300</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="27">
+      <c r="F22" s="20"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="27">
+      <c r="J22" s="14"/>
+      <c r="K22" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19">
+      <c r="B23" s="19"/>
+      <c r="C23" s="18">
         <v>1050</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="27">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="26">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="27">
+      <c r="J23" s="14"/>
+      <c r="K23" s="26">
         <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19">
+      <c r="B24" s="19"/>
+      <c r="C24" s="18">
         <v>8100</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="27">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="26">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="27">
+      <c r="J24" s="14"/>
+      <c r="K24" s="26">
         <f t="shared" si="2"/>
         <v>8100</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="27">
+      <c r="A25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="26">
         <f>+C98</f>
         <v>151673.02999999997</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="27">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="26">
         <f>+F25</f>
         <v>151673.02999999997</v>
       </c>
-      <c r="M25" s="15"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="36">
+      <c r="A26" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="35">
         <f>+E93</f>
         <v>187373</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="36">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="35">
         <f>+G26</f>
         <v>187373</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>14950</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21">
         <f>+B30</f>
         <v>14950</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="35">
+      <c r="E30" s="21"/>
+      <c r="F30" s="34">
         <f>+C91</f>
         <v>187373</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="27">
+      <c r="G30" s="20"/>
+      <c r="H30" s="26">
         <f>+D30+F30-G30</f>
         <v>202323</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="27">
+      <c r="I30" s="14"/>
+      <c r="J30" s="26">
         <f>+H30</f>
         <v>202323</v>
       </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21">
         <f t="shared" ref="D31:D69" si="3">+B31</f>
         <v>0</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="27">
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="26">
         <f t="shared" ref="H31:H69" si="4">+D31+F31-G31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>46566.13</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21">
         <f t="shared" si="3"/>
         <v>46566.13</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="27">
+      <c r="E32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="26">
         <f t="shared" si="4"/>
         <v>46566.13</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="27">
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="26">
         <f>+H32</f>
         <v>46566.13</v>
       </c>
-      <c r="M32" s="27"/>
+      <c r="M32" s="26"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="27">
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>2960</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21">
         <f t="shared" si="3"/>
         <v>2960</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="27">
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="26">
         <f t="shared" si="4"/>
         <v>2960</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="27">
+      <c r="I34" s="14"/>
+      <c r="J34" s="26">
         <f>+H34</f>
         <v>2960</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>6000</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="27">
+      <c r="E35" s="21"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="26">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="27">
+      <c r="I35" s="14"/>
+      <c r="J35" s="26">
         <f>+H35</f>
         <v>6000</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="27">
+      <c r="E36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
     </row>
     <row r="37" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>1299</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21">
         <f t="shared" si="3"/>
         <v>1299</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="27">
+      <c r="E37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="26">
         <f t="shared" si="4"/>
         <v>1299</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="27">
+      <c r="I37" s="14"/>
+      <c r="J37" s="26">
         <f>+H37</f>
         <v>1299</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>4004</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21">
         <f t="shared" si="3"/>
         <v>4004</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="27">
+      <c r="E38" s="21"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="26">
         <f t="shared" si="4"/>
         <v>4004</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="27">
+      <c r="I38" s="14"/>
+      <c r="J38" s="26">
         <f t="shared" ref="J38:J46" si="5">+H38</f>
         <v>4004</v>
       </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="27">
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="27">
+      <c r="I39" s="14"/>
+      <c r="J39" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
     </row>
     <row r="40" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>867337.36999999988</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21">
         <f t="shared" si="3"/>
         <v>867337.36999999988</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="27">
+      <c r="E40" s="21"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="26">
         <f t="shared" si="4"/>
         <v>867337.36999999988</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="27">
+      <c r="I40" s="14"/>
+      <c r="J40" s="26">
         <f t="shared" si="5"/>
         <v>867337.36999999988</v>
       </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
     </row>
     <row r="41" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <v>300</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="27">
+      <c r="E41" s="21"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="26">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="27">
+      <c r="I41" s="14"/>
+      <c r="J41" s="26">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
     </row>
     <row r="42" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <v>554</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21">
         <f t="shared" si="3"/>
         <v>554</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="27">
+      <c r="E42" s="21"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="26">
         <f t="shared" si="4"/>
         <v>554</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="27">
+      <c r="I42" s="14"/>
+      <c r="J42" s="26">
         <f t="shared" si="5"/>
         <v>554</v>
       </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
     </row>
     <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="21">
         <v>32342.6</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21">
         <f t="shared" si="3"/>
         <v>32342.6</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="27">
+      <c r="E43" s="21"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="26">
         <f t="shared" si="4"/>
         <v>32342.6</v>
       </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="27">
+      <c r="I43" s="14"/>
+      <c r="J43" s="26">
         <f t="shared" si="5"/>
         <v>32342.6</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
     </row>
     <row r="44" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="27">
+      <c r="E44" s="21"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="27">
+      <c r="I44" s="14"/>
+      <c r="J44" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="27">
+      <c r="E45" s="21"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="27">
+      <c r="I45" s="14"/>
+      <c r="J45" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="21">
         <v>16333</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21">
         <f t="shared" si="3"/>
         <v>16333</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="27">
+      <c r="E46" s="21"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="26">
         <f t="shared" si="4"/>
         <v>16333</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="27">
+      <c r="I46" s="14"/>
+      <c r="J46" s="26">
         <f t="shared" si="5"/>
         <v>16333</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
     </row>
     <row r="47" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="21">
         <v>-36814.99</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21">
         <f t="shared" si="3"/>
         <v>-36814.99</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="31">
+      <c r="E47" s="21"/>
+      <c r="F47" s="30">
         <f>+C81</f>
         <v>36814.99</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="27">
+      <c r="G47" s="20"/>
+      <c r="H47" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="27">
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="26">
         <f>+H47</f>
         <v>0</v>
       </c>
-      <c r="M47" s="27"/>
+      <c r="M47" s="26"/>
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="21">
         <v>-12832</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22">
+      <c r="C48" s="21"/>
+      <c r="D48" s="21">
         <f t="shared" si="3"/>
         <v>-12832</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="31">
+      <c r="E48" s="21"/>
+      <c r="F48" s="30">
         <f>+C82</f>
         <v>12832</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="27">
+      <c r="G48" s="20"/>
+      <c r="H48" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="27">
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="26">
         <f>+H48</f>
         <v>0</v>
       </c>
-      <c r="M48" s="27"/>
+      <c r="M48" s="26"/>
     </row>
     <row r="49" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="21">
         <v>2831.83</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21">
         <f t="shared" si="3"/>
         <v>2831.83</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="27">
+      <c r="E49" s="21"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="26">
         <f t="shared" si="4"/>
         <v>2831.83</v>
       </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="27">
+      <c r="I49" s="14"/>
+      <c r="J49" s="26">
         <f>+H49</f>
         <v>2831.83</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
     </row>
     <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="21">
         <v>39096.5</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22">
+      <c r="C50" s="21"/>
+      <c r="D50" s="21">
         <f t="shared" si="3"/>
         <v>39096.5</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="27">
+      <c r="E50" s="21"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="26">
         <f t="shared" si="4"/>
         <v>39096.5</v>
       </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="27">
+      <c r="I50" s="14"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="26">
         <f>+H50</f>
         <v>39096.5</v>
       </c>
-      <c r="M50" s="15"/>
+      <c r="M50" s="14"/>
     </row>
     <row r="51" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="21">
         <v>7256</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22">
+      <c r="C51" s="21"/>
+      <c r="D51" s="21">
         <f t="shared" si="3"/>
         <v>7256</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="27">
+      <c r="E51" s="21"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="26">
         <f t="shared" si="4"/>
         <v>7256</v>
       </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="27">
+      <c r="I51" s="14"/>
+      <c r="J51" s="26">
         <f t="shared" ref="J51:J55" si="6">+H51</f>
         <v>7256</v>
       </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
     </row>
     <row r="52" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="21">
         <v>1918</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21">
         <f t="shared" si="3"/>
         <v>1918</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="27">
+      <c r="E52" s="21"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="26">
         <f t="shared" si="4"/>
         <v>1918</v>
       </c>
-      <c r="I52" s="15"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="27">
+      <c r="I52" s="14"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="26">
         <f>+H52</f>
         <v>1918</v>
       </c>
-      <c r="M52" s="15"/>
+      <c r="M52" s="14"/>
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="21">
         <v>9188.8799999999992</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21">
         <f t="shared" si="3"/>
         <v>9188.8799999999992</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="27">
+      <c r="E53" s="21"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="26">
         <f t="shared" si="4"/>
         <v>9188.8799999999992</v>
       </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="27">
+      <c r="I53" s="14"/>
+      <c r="J53" s="26">
         <f t="shared" si="6"/>
         <v>9188.8799999999992</v>
       </c>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
     </row>
     <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="21">
         <v>2356</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21">
         <f t="shared" si="3"/>
         <v>2356</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="27">
+      <c r="E54" s="21"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="26">
         <f t="shared" si="4"/>
         <v>2356</v>
       </c>
-      <c r="I54" s="15"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="27">
+      <c r="I54" s="14"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="26">
         <f>+H54</f>
         <v>2356</v>
       </c>
-      <c r="M54" s="15"/>
+      <c r="M54" s="14"/>
     </row>
     <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="21">
         <v>1980</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21">
         <f t="shared" si="3"/>
         <v>1980</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="27">
+      <c r="E55" s="21"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="26">
         <f t="shared" si="4"/>
         <v>1980</v>
       </c>
-      <c r="I55" s="15"/>
-      <c r="J55" s="27">
+      <c r="I55" s="14"/>
+      <c r="J55" s="26">
         <f t="shared" si="6"/>
         <v>1980</v>
       </c>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
     </row>
     <row r="56" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="21">
         <v>54394</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21">
         <f t="shared" si="3"/>
         <v>54394</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="27">
+      <c r="E56" s="21"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="26">
         <f t="shared" si="4"/>
         <v>54394</v>
       </c>
-      <c r="I56" s="15"/>
-      <c r="J56" s="27">
+      <c r="I56" s="14"/>
+      <c r="J56" s="26">
         <f>+H56</f>
         <v>54394</v>
       </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
     </row>
     <row r="57" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="21">
         <v>3713</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21">
         <f t="shared" si="3"/>
         <v>3713</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="27">
+      <c r="E57" s="21"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="26">
         <f t="shared" si="4"/>
         <v>3713</v>
       </c>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="27">
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="26">
         <f>+H57</f>
         <v>3713</v>
       </c>
-      <c r="M57" s="27"/>
+      <c r="M57" s="26"/>
     </row>
     <row r="58" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="27">
+      <c r="E58" s="21"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
     </row>
     <row r="59" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="21">
         <v>37665</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22">
+      <c r="C59" s="21"/>
+      <c r="D59" s="21">
         <f t="shared" si="3"/>
         <v>37665</v>
       </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="27">
+      <c r="E59" s="21"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="26">
         <f t="shared" si="4"/>
         <v>37665</v>
       </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="27">
+      <c r="I59" s="14"/>
+      <c r="J59" s="26">
         <f>+H59</f>
         <v>37665</v>
       </c>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
     </row>
     <row r="60" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="21">
         <v>322.7</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22">
+      <c r="C60" s="21"/>
+      <c r="D60" s="21">
         <f t="shared" si="3"/>
         <v>322.7</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="27">
+      <c r="E60" s="21"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="26">
         <f t="shared" si="4"/>
         <v>322.7</v>
       </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="27">
+      <c r="I60" s="14"/>
+      <c r="J60" s="26">
         <f>+H60</f>
         <v>322.7</v>
       </c>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
     </row>
     <row r="61" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="21">
         <v>-57444.290000000023</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22">
+      <c r="C61" s="21"/>
+      <c r="D61" s="21">
         <f t="shared" si="3"/>
         <v>-57444.290000000023</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="27">
+      <c r="E61" s="21"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="26">
         <f t="shared" si="4"/>
         <v>-57444.290000000023</v>
       </c>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="27">
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="26">
         <f>+H61</f>
         <v>-57444.290000000023</v>
       </c>
-      <c r="M61" s="27"/>
+      <c r="M61" s="26"/>
     </row>
     <row r="62" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="27">
+      <c r="E62" s="21"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
     </row>
     <row r="63" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="27">
+      <c r="E63" s="21"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
     </row>
     <row r="64" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64" s="21">
         <v>2231</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22">
+      <c r="C64" s="21"/>
+      <c r="D64" s="21">
         <f t="shared" si="3"/>
         <v>2231</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="27">
+      <c r="E64" s="21"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="26">
         <f t="shared" si="4"/>
         <v>2231</v>
       </c>
-      <c r="I64" s="15"/>
-      <c r="J64" s="27">
+      <c r="I64" s="14"/>
+      <c r="J64" s="26">
         <f>+H64</f>
         <v>2231</v>
       </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
     </row>
     <row r="65" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="27">
+      <c r="E65" s="21"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
     </row>
     <row r="66" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B66" s="22">
+      <c r="A66" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="21">
         <v>18400</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21">
         <f t="shared" si="3"/>
         <v>18400</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="27">
+      <c r="E66" s="21"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="26">
         <f t="shared" si="4"/>
         <v>18400</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="27">
+      <c r="I66" s="14"/>
+      <c r="J66" s="26">
         <f>+H66</f>
         <v>18400</v>
       </c>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
     </row>
     <row r="67" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67" s="21">
         <v>24840</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22">
+      <c r="C67" s="21"/>
+      <c r="D67" s="21">
         <f t="shared" si="3"/>
         <v>24840</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="27">
+      <c r="E67" s="21"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="26">
         <f t="shared" si="4"/>
         <v>24840</v>
       </c>
-      <c r="I67" s="15"/>
-      <c r="J67" s="27">
+      <c r="I67" s="14"/>
+      <c r="J67" s="26">
         <f>+H67</f>
         <v>24840</v>
       </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
     </row>
     <row r="68" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68" s="21">
         <v>4600</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22">
+      <c r="C68" s="21"/>
+      <c r="D68" s="21">
         <f t="shared" si="3"/>
         <v>4600</v>
       </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="27">
+      <c r="E68" s="21"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="26">
         <f t="shared" si="4"/>
         <v>4600</v>
       </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="27">
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="26">
         <f>+H68</f>
         <v>4600</v>
       </c>
-      <c r="M68" s="27"/>
+      <c r="M68" s="26"/>
     </row>
     <row r="69" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="21">
         <v>2713</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22">
+      <c r="C69" s="21"/>
+      <c r="D69" s="21">
         <f t="shared" si="3"/>
         <v>2713</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="27">
+      <c r="E69" s="21"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="26">
         <f t="shared" si="4"/>
         <v>2713</v>
       </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="27">
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="26">
         <f>+H69</f>
         <v>2713</v>
       </c>
-      <c r="M69" s="27"/>
+      <c r="M69" s="26"/>
     </row>
     <row r="70" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="31">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="30">
         <f>+C83</f>
         <v>97394.153439153437</v>
       </c>
-      <c r="G70" s="21"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="27">
+      <c r="G70" s="20"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="26">
         <f>+F70</f>
         <v>97394.153439153437</v>
       </c>
-      <c r="M70" s="27"/>
+      <c r="M70" s="26"/>
     </row>
     <row r="71" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="31">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="30">
         <f>+C84</f>
         <v>12832</v>
       </c>
-      <c r="G71" s="21"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="27">
+      <c r="G71" s="20"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="26">
         <f>+F71</f>
         <v>12832</v>
       </c>
-      <c r="M71" s="27"/>
+      <c r="M71" s="26"/>
     </row>
     <row r="72" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
     </row>
     <row r="73" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
     </row>
     <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="15"/>
-      <c r="B74" s="25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="24">
         <f>SUM(B6:B73)</f>
         <v>3543190.3699999996</v>
       </c>
-      <c r="C74" s="25">
+      <c r="C74" s="24">
         <f>SUM(C6:C73)</f>
         <v>3543190.3699999996</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="24">
         <f>SUM(D6:D73)</f>
         <v>1169319.5400000003</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="24">
         <f>SUM(E6:E73)</f>
         <v>1169319.5400000003</v>
       </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="28">
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="27">
         <f>SUM(H6:H73)</f>
         <v>1398139.4165608468</v>
       </c>
-      <c r="I74" s="25">
+      <c r="I74" s="24">
         <f>SUM(I6:I73)</f>
         <v>1339714.0700000003</v>
       </c>
-      <c r="J74" s="25">
+      <c r="J74" s="24">
         <f>SUM(J7:J73)</f>
         <v>1292562.3799999999</v>
       </c>
-      <c r="K74" s="28">
+      <c r="K74" s="27">
         <f>SUM(K7:K73)</f>
         <v>1339714.0700000003</v>
       </c>
-      <c r="L74" s="28">
+      <c r="L74" s="27">
         <f>SUM(L6:L73)</f>
         <v>215803.19000000047</v>
       </c>
-      <c r="M74" s="28"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
     </row>
     <row r="75" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="27">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="26">
         <f>+K74-J74</f>
         <v>47151.69000000041</v>
       </c>
-      <c r="L75" s="15"/>
-      <c r="M75" s="32">
+      <c r="L75" s="14"/>
+      <c r="M75" s="31">
         <f>+K75</f>
         <v>47151.69000000041</v>
       </c>
@@ -5054,257 +5057,257 @@
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L77" s="33">
+      <c r="L77" s="32">
         <f>+L74</f>
         <v>215803.19000000047</v>
       </c>
-      <c r="M77" s="33">
+      <c r="M77" s="32">
         <f>SUM(M12:M76)</f>
         <v>215803.19000000041</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="38"/>
-      <c r="C81" s="30">
+      <c r="B81" s="37"/>
+      <c r="C81" s="29">
         <v>36814.99</v>
       </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="30">
+      <c r="B82" s="37"/>
+      <c r="C82" s="29">
         <v>12832</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="29">
+      <c r="B83" s="37"/>
+      <c r="C83" s="28">
         <f>+C81/0.378</f>
         <v>97394.153439153437</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="30">
+      <c r="B84" s="37"/>
+      <c r="C84" s="29">
         <v>12832</v>
       </c>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38" t="s">
+      <c r="A86" s="37"/>
+      <c r="B86" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="30">
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="29">
         <v>159873.14343915344</v>
       </c>
-      <c r="F86" s="38"/>
+      <c r="F86" s="37"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="34">
+      <c r="B91" s="37"/>
+      <c r="C91" s="33">
         <v>187373</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="39">
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="38">
         <f>+C91</f>
         <v>187373</v>
       </c>
-      <c r="F93" s="38"/>
+      <c r="F93" s="37"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
+      <c r="A95" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98" s="38"/>
-      <c r="C98" s="30">
+      <c r="A98" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="37"/>
+      <c r="C98" s="29">
         <f>+E102+E100</f>
         <v>151673.02999999997</v>
       </c>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="30">
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="29">
         <v>29057.099999999977</v>
       </c>
-      <c r="F100" s="38"/>
+      <c r="F100" s="37"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="F101" s="38"/>
+      <c r="A101" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="F101" s="37"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="30">
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="29">
         <v>122615.93</v>
       </c>
-      <c r="F102" s="38"/>
+      <c r="F102" s="37"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="38"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="37"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
+      <c r="A104" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/aCCTg. pROGRAm/fs 2015.xlsx
+++ b/aCCTg. pROGRAm/fs 2015.xlsx
@@ -736,10 +736,10 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,167 +2759,167 @@
         <f t="shared" ref="C19:AR19" si="1">SUM(C7:C18)</f>
         <v>1736465.7799999998</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="41">
         <f t="shared" si="1"/>
         <v>97738.5</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <f t="shared" si="1"/>
         <v>14950</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <f t="shared" si="1"/>
         <v>1915</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="41">
         <f t="shared" si="1"/>
         <v>46566.13</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <f t="shared" si="1"/>
         <v>346977.55</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="41">
         <f t="shared" si="1"/>
         <v>2960</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="41">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="41">
         <f t="shared" si="1"/>
         <v>2550</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="41">
         <f t="shared" si="1"/>
         <v>1299</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="41">
         <f t="shared" si="1"/>
         <v>4004</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="41">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="41">
         <f t="shared" si="1"/>
         <v>867337.36999999988</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="41">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="41">
         <f t="shared" si="1"/>
         <v>554</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="41">
         <f t="shared" si="1"/>
         <v>32342.6</v>
       </c>
-      <c r="S19" s="42">
+      <c r="S19" s="41">
         <f t="shared" si="1"/>
         <v>64960</v>
       </c>
-      <c r="T19" s="42">
+      <c r="T19" s="41">
         <f t="shared" si="1"/>
         <v>39036</v>
       </c>
-      <c r="U19" s="42">
+      <c r="U19" s="41">
         <f t="shared" si="1"/>
         <v>16333</v>
       </c>
-      <c r="V19" s="42">
+      <c r="V19" s="41">
         <f t="shared" si="1"/>
         <v>-36814.99</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="41">
         <f t="shared" si="1"/>
         <v>-12832</v>
       </c>
-      <c r="X19" s="42">
+      <c r="X19" s="41">
         <f t="shared" si="1"/>
         <v>2831.83</v>
       </c>
-      <c r="Y19" s="42">
+      <c r="Y19" s="41">
         <f t="shared" si="1"/>
         <v>39096.5</v>
       </c>
-      <c r="Z19" s="42">
+      <c r="Z19" s="41">
         <f t="shared" si="1"/>
         <v>7256</v>
       </c>
-      <c r="AA19" s="42">
+      <c r="AA19" s="41">
         <f t="shared" si="1"/>
         <v>1918</v>
       </c>
-      <c r="AB19" s="42">
+      <c r="AB19" s="41">
         <f t="shared" si="1"/>
         <v>9188.8799999999992</v>
       </c>
-      <c r="AC19" s="42">
+      <c r="AC19" s="41">
         <f t="shared" si="1"/>
         <v>2356</v>
       </c>
-      <c r="AD19" s="42">
+      <c r="AD19" s="41">
         <f t="shared" si="1"/>
         <v>1980</v>
       </c>
-      <c r="AE19" s="42">
+      <c r="AE19" s="41">
         <f t="shared" si="1"/>
         <v>54394</v>
       </c>
-      <c r="AF19" s="42">
+      <c r="AF19" s="41">
         <f t="shared" si="1"/>
         <v>3713</v>
       </c>
-      <c r="AG19" s="42">
+      <c r="AG19" s="41">
         <f t="shared" si="1"/>
         <v>5533</v>
       </c>
-      <c r="AH19" s="42">
+      <c r="AH19" s="41">
         <f t="shared" si="1"/>
         <v>37665</v>
       </c>
-      <c r="AI19" s="42">
+      <c r="AI19" s="41">
         <f t="shared" si="1"/>
         <v>322.7</v>
       </c>
-      <c r="AJ19" s="42">
+      <c r="AJ19" s="41">
         <f t="shared" si="1"/>
         <v>-57444.290000000023</v>
       </c>
-      <c r="AK19" s="42">
+      <c r="AK19" s="41">
         <f t="shared" si="1"/>
         <v>47340</v>
       </c>
-      <c r="AL19" s="42">
+      <c r="AL19" s="41">
         <f t="shared" si="1"/>
         <v>26755</v>
       </c>
-      <c r="AM19" s="42">
+      <c r="AM19" s="41">
         <f t="shared" si="1"/>
         <v>2231</v>
       </c>
-      <c r="AN19" s="42">
+      <c r="AN19" s="41">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="AO19" s="42">
+      <c r="AO19" s="41">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="AP19" s="42">
+      <c r="AP19" s="41">
         <f t="shared" si="1"/>
         <v>24840</v>
       </c>
-      <c r="AQ19" s="42">
+      <c r="AQ19" s="41">
         <f t="shared" si="1"/>
         <v>4600</v>
       </c>
-      <c r="AR19" s="42">
+      <c r="AR19" s="41">
         <f t="shared" si="1"/>
         <v>2713</v>
       </c>
@@ -3031,10 +3031,10 @@
   <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,26 +3090,26 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="41"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
